--- a/Fingering.xlsx
+++ b/Fingering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/projects/personal/fingering-diagram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE638D6-10B0-4A48-A1DB-1142B39995B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0D95AD-9D93-3049-B1A8-B3269D499D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34460" yWindow="1980" windowWidth="33600" windowHeight="18880" activeTab="3" xr2:uid="{851DC363-32CE-4241-A25E-21E01B6D35D5}"/>
   </bookViews>
@@ -228,7 +228,47 @@
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
+          <t>https://www.dolmetsch.com/textfingeringchart.htm
+http://www.recorder-fingerings.com/en/F.php?t=aBar.1S.3a</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">https://www.wfg.woodwind.org/recorder/rec_bas_1.html
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>http://www.flute-a-bec.com/tablaturgb.html</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -247,7 +287,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Where 1 stands for key depressed, 2 for key half depressed.</t>
         </r>
@@ -258,7 +297,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="202">
   <si>
     <t>B3</t>
   </si>
@@ -719,12 +758,6 @@
     <t>Mapping</t>
   </si>
   <si>
-    <t>\uEC43</t>
-  </si>
-  <si>
-    <t>\uEC44</t>
-  </si>
-  <si>
     <t>\uEC45</t>
   </si>
   <si>
@@ -770,9 +803,6 @@
     <t>\uEC4E</t>
   </si>
   <si>
-    <t>\uEC63\uEC69</t>
-  </si>
-  <si>
     <t>MIDI</t>
   </si>
   <si>
@@ -846,6 +876,33 @@
   </si>
   <si>
     <t>\uEF6A</t>
+  </si>
+  <si>
+    <t>\uEC56</t>
+  </si>
+  <si>
+    <t>\uEC54</t>
+  </si>
+  <si>
+    <t>\uEC55</t>
+  </si>
+  <si>
+    <t>\uEC59</t>
+  </si>
+  <si>
+    <t>\uEF6B</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>\uEF9D</t>
+  </si>
+  <si>
+    <t>Fingering</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -856,7 +913,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -923,6 +980,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -945,7 +1009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -958,6 +1022,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1275,9 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A239D894-B9EC-9443-B742-08695ADDA253}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1288,13 +1353,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>144</v>
@@ -1302,10 +1367,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2">
         <v>60480</v>
@@ -1317,10 +1382,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3">
         <f>C2+160</f>
@@ -1333,10 +1398,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C7" si="1">C3+160</f>
@@ -1349,10 +1414,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -1365,10 +1430,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -1381,13 +1446,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
         <v>177</v>
       </c>
-      <c r="B7" t="s">
-        <v>180</v>
-      </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f>C6+160</f>
         <v>61280</v>
       </c>
       <c r="D7" t="str">
@@ -1395,9 +1460,22 @@
         <v>EF60</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8">
+        <f>C7+160</f>
+        <v>61440</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" ref="D8" si="2">DEC2HEX(C8)</f>
+        <v>F000</v>
+      </c>
+    </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9">
         <f>C2+1600</f>
@@ -1418,7 +1496,7 @@
   <dimension ref="A1:Z54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
@@ -1503,7 +1581,7 @@
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>138</v>
@@ -1533,42 +1611,44 @@
         <v>157</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="V2" s="4"/>
       <c r="X2" s="3" t="s">
@@ -1600,22 +1680,22 @@
       </c>
       <c r="J3" s="4"/>
       <c r="N3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="P3" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="W3">
         <v>59</v>
@@ -1625,11 +1705,11 @@
       </c>
       <c r="Y3" s="8" t="str">
         <f>_xlfn.CONCAT(C3:U3)</f>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53</v>
       </c>
       <c r="Z3" t="str">
         <f>"'"&amp;Y3&amp;"',"</f>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53',</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -1652,19 +1732,19 @@
         <v>157</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="S4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="W4">
         <v>60</v>
@@ -1674,11 +1754,11 @@
       </c>
       <c r="Y4" s="8" t="str">
         <f t="shared" ref="Y4:Y40" si="0">_xlfn.CONCAT(C4:U4)</f>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53</v>
       </c>
       <c r="Z4" t="str">
         <f>Z3&amp;"'"&amp;Y4&amp;"',"</f>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53',</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -1701,16 +1781,16 @@
         <v>157</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O5" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="P5" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W5">
         <v>61</v>
@@ -1720,11 +1800,11 @@
       </c>
       <c r="Y5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53</v>
       </c>
       <c r="Z5" t="str">
         <f t="shared" ref="Z5:Z49" si="1">Z4&amp;"'"&amp;Y5&amp;"',"</f>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53',</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -1747,13 +1827,13 @@
         <v>157</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O6" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="P6" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -1768,11 +1848,11 @@
       </c>
       <c r="Y6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51</v>
       </c>
       <c r="Z6" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51',</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -1798,16 +1878,16 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="N7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R7" s="6"/>
       <c r="W7">
@@ -1818,11 +1898,11 @@
       </c>
       <c r="Y7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52</v>
       </c>
       <c r="Z7" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52',</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -1848,14 +1928,14 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="N8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R8" s="6"/>
       <c r="W8">
@@ -1866,11 +1946,11 @@
       </c>
       <c r="Y8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52</v>
       </c>
       <c r="Z8" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52',</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -1896,12 +1976,12 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="N9" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="R9" s="6"/>
       <c r="W9">
@@ -1912,11 +1992,11 @@
       </c>
       <c r="Y9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52</v>
       </c>
       <c r="Z9" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52',</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -1944,10 +2024,10 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W10">
         <v>66</v>
@@ -1957,11 +2037,11 @@
       </c>
       <c r="Y10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52</v>
       </c>
       <c r="Z10" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52',</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -1990,7 +2070,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W11">
         <v>67</v>
@@ -2000,11 +2080,11 @@
       </c>
       <c r="Y11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC52</v>
       </c>
       <c r="Z11" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52',</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2027,7 +2107,7 @@
         <v>157</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2035,7 +2115,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W12">
         <v>68</v>
@@ -2045,11 +2125,11 @@
       </c>
       <c r="Y12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52</v>
       </c>
       <c r="Z12" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52',</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2076,7 +2156,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W13">
         <v>69</v>
@@ -2086,11 +2166,11 @@
       </c>
       <c r="Y13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC52</v>
       </c>
       <c r="Z13" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC45\uEC46\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52',</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2112,12 +2192,12 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="N14" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W14">
         <v>70</v>
@@ -2127,11 +2207,11 @@
       </c>
       <c r="Y14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC4A\uEC4F</v>
+        <v>\uEC46\uEC47\uEC4D\uEC52</v>
       </c>
       <c r="Z14" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC45\uEC46\uEC4F','\uEC44\uEC45\uEC4A\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52','\uEC46\uEC47\uEC4D\uEC52',</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2156,7 +2236,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W15">
         <v>71</v>
@@ -2166,11 +2246,11 @@
       </c>
       <c r="Y15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC4F</v>
+        <v>\uEC46\uEC47\uEC52</v>
       </c>
       <c r="Z15" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC51\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC50','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC45\uEC46\uEC4F','\uEC44\uEC45\uEC4A\uEC4F','\uEC44\uEC45\uEC4F',</v>
+        <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52','\uEC46\uEC47\uEC4D\uEC52','\uEC46\uEC47\uEC52',</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2193,7 +2273,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W16">
         <v>72</v>
@@ -2203,11 +2283,11 @@
       </c>
       <c r="Y16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC45\uEC4F</v>
+        <v>\uEC47\uEC52</v>
       </c>
       <c r="Z16" t="str">
         <f>"'"&amp;Y16&amp;"',"</f>
-        <v>'\uEC45\uEC4F',</v>
+        <v>'\uEC47\uEC52',</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2228,7 +2308,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W17">
         <v>73</v>
@@ -2238,11 +2318,11 @@
       </c>
       <c r="Y17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC4F</v>
+        <v>\uEC52</v>
       </c>
       <c r="Z17" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52',</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2266,13 +2346,13 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="N18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="P18" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q18" s="6"/>
       <c r="W18">
@@ -2283,11 +2363,11 @@
       </c>
       <c r="Y18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E</v>
+        <v>\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51</v>
       </c>
       <c r="Z18" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51',</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2311,16 +2391,16 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="N19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O19" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="P19" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W19">
         <v>75</v>
@@ -2330,11 +2410,11 @@
       </c>
       <c r="Y19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F</v>
+        <v>\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52</v>
       </c>
       <c r="Z19" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52',</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2360,14 +2440,14 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="N20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="P20" s="6"/>
       <c r="Q20" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W20">
         <v>76</v>
@@ -2377,11 +2457,11 @@
       </c>
       <c r="Y20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52</v>
       </c>
       <c r="Z20" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52',</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2407,12 +2487,12 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="N21" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W21">
         <v>77</v>
@@ -2422,11 +2502,11 @@
       </c>
       <c r="Y21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52</v>
       </c>
       <c r="Z21" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52',</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2454,10 +2534,10 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W22">
         <v>78</v>
@@ -2467,11 +2547,11 @@
       </c>
       <c r="Y22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52</v>
       </c>
       <c r="Z22" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52',</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2500,7 +2580,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W23">
         <v>79</v>
@@ -2510,11 +2590,11 @@
       </c>
       <c r="Y23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC52</v>
       </c>
       <c r="Z23" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52',</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2537,7 +2617,7 @@
         <v>157</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -2545,7 +2625,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W24">
         <v>80</v>
@@ -2555,11 +2635,11 @@
       </c>
       <c r="Y24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52</v>
       </c>
       <c r="Z24" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52',</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2586,7 +2666,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W25">
         <v>81</v>
@@ -2596,11 +2676,11 @@
       </c>
       <c r="Y25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC52</v>
       </c>
       <c r="Z25" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC45\uEC46\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52',</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2622,12 +2702,12 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="N26" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W26">
         <v>82</v>
@@ -2637,11 +2717,11 @@
       </c>
       <c r="Y26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC4A\uEC4F</v>
+        <v>\uEC46\uEC47\uEC4D\uEC52</v>
       </c>
       <c r="Z26" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC45\uEC46\uEC4F','\uEC44\uEC45\uEC4A\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52','\uEC46\uEC47\uEC4D\uEC52',</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2666,7 +2746,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W27">
         <v>83</v>
@@ -2676,11 +2756,11 @@
       </c>
       <c r="Y27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC4F</v>
+        <v>\uEC46\uEC47\uEC52</v>
       </c>
       <c r="Z27" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC45\uEC46\uEC4F','\uEC44\uEC45\uEC4A\uEC4F','\uEC44\uEC45\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52','\uEC46\uEC47\uEC4D\uEC52','\uEC46\uEC47\uEC52',</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2703,7 +2783,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W28">
         <v>84</v>
@@ -2713,11 +2793,11 @@
       </c>
       <c r="Y28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC45\uEC4F</v>
+        <v>\uEC47\uEC52</v>
       </c>
       <c r="Z28" t="str">
         <f>"'"&amp;Y28&amp;"',"</f>
-        <v>'\uEC45\uEC4F',</v>
+        <v>'\uEC47\uEC52',</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2738,7 +2818,7 @@
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W29">
         <v>85</v>
@@ -2748,11 +2828,11 @@
       </c>
       <c r="Y29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC4F</v>
+        <v>\uEC52</v>
       </c>
       <c r="Z29" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52',</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2779,7 +2859,7 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W30">
         <v>86</v>
@@ -2789,11 +2869,11 @@
       </c>
       <c r="Y30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC46\uEC47\uEC4F</v>
+        <v>\uEC46\uEC48\uEC49\uEC52</v>
       </c>
       <c r="Z30" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52',</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2816,21 +2896,21 @@
         <v>157</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="N31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O31" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="P31" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W31">
         <v>87</v>
@@ -2840,11 +2920,11 @@
       </c>
       <c r="Y31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52</v>
       </c>
       <c r="Z31" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52',</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2868,14 +2948,14 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="N32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W32">
         <v>88</v>
@@ -2885,11 +2965,11 @@
       </c>
       <c r="Y32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F</v>
+        <v>\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52</v>
       </c>
       <c r="Z32" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52',</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2913,12 +2993,12 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="N33" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W33">
         <v>89</v>
@@ -2928,11 +3008,11 @@
       </c>
       <c r="Y33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC47\uEC4A\uEC4F</v>
+        <v>\uEC46\uEC47\uEC49\uEC4D\uEC52</v>
       </c>
       <c r="Z33" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC47\uEC4A\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52',</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -2958,10 +3038,10 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W34">
         <v>90</v>
@@ -2971,11 +3051,11 @@
       </c>
       <c r="Y34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC47\uEC4E\uEC4F</v>
+        <v>\uEC46\uEC47\uEC49\uEC51\uEC52</v>
       </c>
       <c r="Z34" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC47\uEC4E\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52',</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3002,7 +3082,7 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W35">
         <v>91</v>
@@ -3012,11 +3092,11 @@
       </c>
       <c r="Y35" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC45\uEC46\uEC47\uEC4F</v>
+        <v>\uEC47\uEC48\uEC49\uEC52</v>
       </c>
       <c r="Z35" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC47\uEC4E\uEC4F','\uEC45\uEC46\uEC47\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52',</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3035,7 +3115,7 @@
         <v>157</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -3043,7 +3123,7 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W36">
         <v>92</v>
@@ -3053,11 +3133,11 @@
       </c>
       <c r="Y36" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC46\uEC47\uEC48\uEC4F</v>
+        <v>\uEC48\uEC49\uEC4A\uEC52</v>
       </c>
       <c r="Z36" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC47\uEC4E\uEC4F','\uEC45\uEC46\uEC47\uEC4F','\uEC46\uEC47\uEC48\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52','\uEC48\uEC49\uEC4A\uEC52',</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3079,12 +3159,12 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="N37" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="W37">
         <v>93</v>
@@ -3094,11 +3174,11 @@
       </c>
       <c r="Y37" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC46\uEC4A\uEC4F</v>
+        <v>\uEC46\uEC48\uEC4D\uEC52</v>
       </c>
       <c r="Z37" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC47\uEC4E\uEC4F','\uEC45\uEC46\uEC47\uEC4F','\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC46\uEC4A\uEC4F',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52','\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC48\uEC4D\uEC52',</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3117,10 +3197,10 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="L38" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
@@ -3133,11 +3213,11 @@
       </c>
       <c r="Y38" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC4B\uEC4A</v>
+        <v>\uEC46\uEC4E\uEC4D</v>
       </c>
       <c r="Z38" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC47\uEC4E\uEC4F','\uEC45\uEC46\uEC47\uEC4F','\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC46\uEC4A\uEC4F','\uEC44\uEC4B\uEC4A',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52','\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC48\uEC4D\uEC52','\uEC46\uEC4E\uEC4D',</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3160,7 +3240,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="M39" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
@@ -3173,11 +3253,11 @@
       </c>
       <c r="Y39" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC44\uEC45\uEC47\uEC4D</v>
+        <v>\uEC46\uEC47\uEC49\uEC50</v>
       </c>
       <c r="Z39" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC4F','\uEC4F','\uEC44\uEC46\uEC47\uEC4F','\uEC44\uEC45\uEC46\uEC47\uEC48\uEC4A\uEC4C\uEC4E\uEC4F','\uEC44\uEC45\uEC46\uEC4A\uEC4C\uEC4F','\uEC44\uEC45\uEC47\uEC4A\uEC4F','\uEC44\uEC45\uEC47\uEC4E\uEC4F','\uEC45\uEC46\uEC47\uEC4F','\uEC46\uEC47\uEC48\uEC4F','\uEC44\uEC46\uEC4A\uEC4F','\uEC44\uEC4B\uEC4A','\uEC44\uEC45\uEC47\uEC4D',</v>
+        <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52','\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC48\uEC4D\uEC52','\uEC46\uEC4E\uEC4D','\uEC46\uEC47\uEC49\uEC50',</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3197,12 +3277,12 @@
         <v>157</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="N40" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3215,11 +3295,11 @@
       </c>
       <c r="Y40" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>\uEC45\uEC46\uEC47\uEC48\uEC4A</v>
+        <v>\uEC47\uEC48\uEC49\uEC4A\uEC4D</v>
       </c>
       <c r="Z40" t="str">
         <f>"'"&amp;Y40&amp;"',"</f>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D',</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3235,16 +3315,16 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="N41" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="S41" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T41" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="W41">
         <v>97</v>
@@ -3254,11 +3334,11 @@
       </c>
       <c r="Y41" s="8" t="str">
         <f t="shared" ref="Y41" si="2">_xlfn.CONCAT(C41:U41)</f>
-        <v>\uEC46\uEC4A\uEC4E\uEC51\uEC50</v>
+        <v>\uEC48\uEC4D\uEC51\uEC55\uEC53</v>
       </c>
       <c r="Z41" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53',</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3278,13 +3358,13 @@
         <v>157</v>
       </c>
       <c r="N42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="O42" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="S42" s="4" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="W42">
         <v>98</v>
@@ -3294,11 +3374,11 @@
       </c>
       <c r="Y42" s="8" t="str">
         <f t="shared" ref="Y42:Y49" si="3">_xlfn.CONCAT(C42:U42)</f>
-        <v>\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51</v>
+        <v>\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55</v>
       </c>
       <c r="Z42" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55',</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3315,16 +3395,16 @@
         <v>157</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S43" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T43" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="W43">
         <v>99</v>
@@ -3334,11 +3414,11 @@
       </c>
       <c r="Y43" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>\uEC44\uEC47\uEC4B\uEC4A\uEC51\uEC50</v>
+        <v>\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53</v>
       </c>
       <c r="Z43" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51','\uEC44\uEC47\uEC4B\uEC4A\uEC51\uEC50',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53',</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3358,22 +3438,22 @@
         <v>157</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L44" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="P44" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="W44">
         <v>100</v>
@@ -3383,11 +3463,11 @@
       </c>
       <c r="Y44" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4D\uEC4E\uEC52\uEC51</v>
+        <v>\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55</v>
       </c>
       <c r="Z44" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51','\uEC44\uEC47\uEC4B\uEC4A\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4D\uEC4E\uEC52\uEC51',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55',</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3401,16 +3481,16 @@
         <v>156</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W45">
         <v>101</v>
@@ -3420,11 +3500,11 @@
       </c>
       <c r="Y45" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>\uEC46\uEC4D\uEC4E\uEC4F\uEC50</v>
+        <v>\uEC48\uEC50\uEC51\uEC52\uEC53</v>
       </c>
       <c r="Z45" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51','\uEC44\uEC47\uEC4B\uEC4A\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4D\uEC4E\uEC52\uEC51','\uEC46\uEC4D\uEC4E\uEC4F\uEC50',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53',</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3438,19 +3518,19 @@
         <v>154</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W46">
         <v>102</v>
@@ -3460,11 +3540,11 @@
       </c>
       <c r="Y46" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>\uEC44\uEC48\uEC4A\uEC4E\uEC4F\uEC50</v>
+        <v>\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53</v>
       </c>
       <c r="Z46" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51','\uEC44\uEC47\uEC4B\uEC4A\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4D\uEC4E\uEC52\uEC51','\uEC46\uEC4D\uEC4E\uEC4F\uEC50','\uEC44\uEC48\uEC4A\uEC4E\uEC4F\uEC50',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53','\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53',</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3484,13 +3564,13 @@
         <v>157</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W47">
         <v>103</v>
@@ -3500,11 +3580,11 @@
       </c>
       <c r="Y47" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4C</v>
+        <v>\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F</v>
       </c>
       <c r="Z47" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51','\uEC44\uEC47\uEC4B\uEC4A\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4D\uEC4E\uEC52\uEC51','\uEC46\uEC4D\uEC4E\uEC4F\uEC50','\uEC44\uEC48\uEC4A\uEC4E\uEC4F\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4C',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53','\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F',</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3524,25 +3604,25 @@
         <v>157</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="S48" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T48" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="W48">
         <v>104</v>
@@ -3552,11 +3632,11 @@
       </c>
       <c r="Y48" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4C\uEC4E\uEC52\uEC51\uEC50</v>
+        <v>\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F\uEC51\uEC54\uEC55\uEC53</v>
       </c>
       <c r="Z48" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51','\uEC44\uEC47\uEC4B\uEC4A\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4D\uEC4E\uEC52\uEC51','\uEC46\uEC4D\uEC4E\uEC4F\uEC50','\uEC44\uEC48\uEC4A\uEC4E\uEC4F\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4C','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4C\uEC4E\uEC52\uEC51\uEC50',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53','\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F\uEC51\uEC54\uEC55\uEC53',</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3576,28 +3656,28 @@
         <v>157</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="S49" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="T49" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="T49" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="W49">
         <v>105</v>
@@ -3607,11 +3687,11 @@
       </c>
       <c r="Y49" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC63\uEC69\uEC4C\uEC4E\uEC52\uEC51\uEC50</v>
+        <v>\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC59\uEC4F\uEC51\uEC54\uEC55\uEC53</v>
       </c>
       <c r="Z49" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEC45\uEC46\uEC47\uEC48\uEC4A','\uEC46\uEC4A\uEC4E\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC4A\uEC4C\uEC51','\uEC44\uEC47\uEC4B\uEC4A\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4D\uEC4E\uEC52\uEC51','\uEC46\uEC4D\uEC4E\uEC4F\uEC50','\uEC44\uEC48\uEC4A\uEC4E\uEC4F\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4C','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC4C\uEC4E\uEC52\uEC51\uEC50','\uEC44\uEC46\uEC47\uEC48\uEC4B\uEC63\uEC69\uEC4C\uEC4E\uEC52\uEC51\uEC50',</v>
+        <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53','\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC59\uEC4F\uEC51\uEC54\uEC55\uEC53',</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.25">
@@ -3698,7 +3778,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10705,13 +10785,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098320-1ECA-4C4B-B8F4-465E7E7241CA}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10723,11 +10803,11 @@
     <col min="7" max="7" width="8.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="16" width="8.5" customWidth="1"/>
-    <col min="17" max="17" width="24.6640625" customWidth="1"/>
+    <col min="10" max="17" width="8.5" customWidth="1"/>
+    <col min="18" max="19" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -10756,74 +10836,86 @@
         <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q2" s="8" t="str">
-        <f>"\uEF60"</f>
-        <v>\uEF60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R2" s="8">
+        <v>60480</v>
+      </c>
+      <c r="S2" t="str">
+        <f>_xlfn.UNICHAR(R2)</f>
+        <v></v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -10831,52 +10923,56 @@
         <v>523.25109999999995</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="O3">
+      <c r="N3" s="4"/>
+      <c r="P3">
         <v>72</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="8" t="str">
-        <f t="shared" ref="Q3:Q34" si="0">_xlfn.CONCAT(C3:M3)</f>
+      <c r="R3" s="8" t="str">
+        <f>_xlfn.CONCAT(C3:N3)</f>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A</v>
       </c>
-      <c r="R3" t="str">
-        <f>"'"&amp;Q3&amp;"',"</f>
+      <c r="S3" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T3" t="str">
+        <f>"'"&amp;R3&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A',</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -10884,49 +10980,50 @@
         <v>554.36530000000005</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="O4">
+      <c r="P4">
         <v>73</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="R4" s="8" t="str">
+        <f t="shared" ref="R4:R36" si="0">_xlfn.CONCAT(C4:N4)</f>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69</v>
       </c>
-      <c r="R4" t="str">
-        <f t="shared" ref="R4:R34" si="1">R3&amp;"'"&amp;Q4&amp;"',"</f>
+      <c r="S4" s="8"/>
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T34" si="1">T3&amp;"'"&amp;R4&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69',</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -10934,46 +11031,47 @@
         <v>587.32950000000005</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="O5">
+      <c r="P5">
         <v>74</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Q5" s="8" t="str">
+      <c r="R5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" s="8"/>
+      <c r="T5" t="str">
         <f t="shared" si="1"/>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68',</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -10981,43 +11079,44 @@
         <v>622.25400000000002</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="O6">
+        <v>189</v>
+      </c>
+      <c r="P6">
         <v>75</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q6" s="8" t="str">
+      <c r="R6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67</v>
       </c>
-      <c r="R6" t="str">
+      <c r="S6" s="8"/>
+      <c r="T6" t="str">
         <f t="shared" si="1"/>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67',</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -11025,949 +11124,1342 @@
         <v>659.25509999999997</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="O7">
+        <v>188</v>
+      </c>
+      <c r="P7">
         <v>76</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="8" t="str">
+      <c r="R7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66</v>
       </c>
-      <c r="R7" t="str">
+      <c r="S7" s="8"/>
+      <c r="T7" t="str">
         <f t="shared" si="1"/>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66',</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>698.45650000000001</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="O8">
+      <c r="C8" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="P8">
         <v>77</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Q8" s="8" t="str">
+      <c r="R8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>111111111</v>
-      </c>
-      <c r="R8" t="str">
+        <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="T8" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','111111111',</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="4">
         <v>739.98879999999997</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="C9" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="P9">
         <v>78</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="8" t="str">
+      <c r="R9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1111111</v>
-      </c>
-      <c r="R9" t="str">
+        <v>\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="T9" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','111111111','1111111',</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <v>783.99090000000001</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="O10">
+      <c r="C10" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10">
         <v>79</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="8" t="str">
+      <c r="R10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1111</v>
-      </c>
-      <c r="R10" t="str">
+        <v>\uEF61\uEF62\uEF63\uEF64</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','111111111','1111111','1111',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="4">
         <v>830.60940000000005</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="O11">
+      <c r="C11" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P11">
         <v>80</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q11" s="8" t="str">
+      <c r="R11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>111111</v>
-      </c>
-      <c r="R11" t="str">
+        <v>\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67</v>
+      </c>
+      <c r="S11" s="8"/>
+      <c r="T11" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','111111111','1111111','1111','111111',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64','\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4">
         <v>880</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="O12">
+      <c r="C12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P12">
         <v>81</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="8" t="str">
+      <c r="R12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="R12" t="str">
+        <v>\uEF61\uEF62\uEF63</v>
+      </c>
+      <c r="S12" s="8"/>
+      <c r="T12" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','111111111','1111111','1111','111111','111',</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64','\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="4">
         <v>932.32749999999999</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="O13">
+      <c r="C13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13">
         <v>82</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="8" t="str">
+      <c r="R13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1111</v>
-      </c>
-      <c r="R13" t="str">
+        <v>\uEF61\uEF62\uEF64\uEF65</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','111111111','1111111','1111','111111','111','1111',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64','\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63','\uEF61\uEF62\uEF64\uEF65',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>987.76660000000004</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="C14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14">
         <v>83</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="8" t="str">
+      <c r="R14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="R14" t="str">
+        <v>\uEF61\uEF62</v>
+      </c>
+      <c r="S14" s="8"/>
+      <c r="T14" t="str">
         <f t="shared" si="1"/>
-        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','111111111','1111111','1111','111111','111','1111','11',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64','\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63','\uEF61\uEF62\uEF64\uEF65','\uEF61\uEF62',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>1046.502</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="O15">
+      <c r="C15" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15">
         <v>84</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q15" s="8" t="str">
+      <c r="R15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="R15" t="str">
-        <f>"'"&amp;Q15&amp;"',"</f>
-        <v>'11',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>\uEF61\uEF63</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" t="str">
+        <f>"'"&amp;R15&amp;"',"</f>
+        <v>'\uEF61\uEF63',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="4">
         <v>1108.731</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="O16">
+      <c r="C16" s="6"/>
+      <c r="D16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16">
         <v>85</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Q16" s="8" t="str">
+      <c r="R16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="R16" t="str">
+        <v>\uEF62\uEF63</v>
+      </c>
+      <c r="S16" s="8"/>
+      <c r="T16" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11',</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="4">
         <v>1174.6590000000001</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17">
         <v>86</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q17" s="8" t="str">
+      <c r="R17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R17" t="str">
+        <v>\uEF63</v>
+      </c>
+      <c r="S17" s="8"/>
+      <c r="T17" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1',</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="4">
         <v>1244.508</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="O18">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18">
         <v>87</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q18" s="8" t="str">
+      <c r="R18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>111111</v>
-      </c>
-      <c r="R18" t="str">
+        <v>\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68</v>
+      </c>
+      <c r="S18" s="8"/>
+      <c r="T18" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111',</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="4">
         <v>1318.51</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="O19">
+      <c r="C19" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19">
         <v>88</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q19" s="8" t="str">
+      <c r="R19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>211111</v>
-      </c>
-      <c r="R19" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111','211111',</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="4">
         <v>1396.913</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="O20">
+      <c r="C20" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20">
         <v>89</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q20" s="8" t="str">
+      <c r="R20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>2111111</v>
-      </c>
-      <c r="R20" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68</v>
+      </c>
+      <c r="S20" s="8"/>
+      <c r="T20" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111','211111','2111111',</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
       <c r="B21" s="4">
         <v>1479.9780000000001</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="O21">
+      <c r="C21" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21">
         <v>90</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Q21" s="8" t="str">
+      <c r="R21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>21111</v>
-      </c>
-      <c r="R21" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF64\uEF66</v>
+      </c>
+      <c r="S21" s="8"/>
+      <c r="T21" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111','211111','2111111','21111',</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="4">
         <v>1567.982</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="O22">
+      <c r="C22" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22">
         <v>91</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q22" s="8" t="str">
+      <c r="R22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>2111</v>
-      </c>
-      <c r="R22" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF64</v>
+      </c>
+      <c r="S22" s="8"/>
+      <c r="T22" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111','211111','2111111','21111','2111',</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="4">
         <v>1661.2190000000001</v>
       </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="O23">
+      <c r="C23" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23">
         <v>92</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q23" s="8" t="str">
+      <c r="R23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>2111</v>
-      </c>
-      <c r="R23" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF65</v>
+      </c>
+      <c r="S23" s="8"/>
+      <c r="T23" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111','211111','2111111','21111','2111','2111',</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64','\uEF6B\uEF62\uEF63\uEF65',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="4">
         <v>1760</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="O24">
+      <c r="C24" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24">
         <v>93</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Q24" s="8" t="str">
+      <c r="R24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>211</v>
-      </c>
-      <c r="R24" t="str">
+        <v>\uEF6B\uEF62\uEF63</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111','211111','2111111','21111','2111','2111','211',</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64','\uEF6B\uEF62\uEF63\uEF65','\uEF6B\uEF62\uEF63',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="4">
         <v>1864.655</v>
       </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="O25">
+      <c r="C25" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25">
         <v>94</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q25" s="8" t="str">
+      <c r="R25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>2111111</v>
-      </c>
-      <c r="R25" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF66\uEF67\uEF68</v>
+      </c>
+      <c r="S25" s="8"/>
+      <c r="T25" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111','211111','2111111','21111','2111','2111','211','2111111',</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64','\uEF6B\uEF62\uEF63\uEF65','\uEF6B\uEF62\uEF63','\uEF6B\uEF62\uEF63\uEF66\uEF67\uEF68',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="4">
         <v>1975.5329999999999</v>
       </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="O26">
+      <c r="C26" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26">
         <v>95</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q26" s="8" t="str">
+      <c r="R26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>21111</v>
-      </c>
-      <c r="R26" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF65\uEF66</v>
+      </c>
+      <c r="S26" s="8"/>
+      <c r="T26" t="str">
         <f t="shared" si="1"/>
-        <v>'11','11','1','111111','211111','2111111','21111','2111','2111','211','2111111','21111',</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64','\uEF6B\uEF62\uEF63\uEF65','\uEF6B\uEF62\uEF63','\uEF6B\uEF62\uEF63\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF65\uEF66',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="4">
         <v>2093.0050000000001</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="O27">
+      <c r="C27" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27">
         <v>96</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q27" s="8" t="str">
+      <c r="R27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>2111</v>
-      </c>
-      <c r="R27" t="str">
-        <f>"'"&amp;Q27&amp;"',"</f>
-        <v>'2111',</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>\uEF6B\uEF62\uEF65\uEF66</v>
+      </c>
+      <c r="S27" s="8"/>
+      <c r="T27" t="str">
+        <f>"'"&amp;R27&amp;"',"</f>
+        <v>'\uEF6B\uEF62\uEF65\uEF66',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="4">
         <v>2217.4609999999998</v>
       </c>
-      <c r="O28">
+      <c r="C28" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" s="6"/>
+      <c r="P28">
         <v>97</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q28" s="8" t="str">
+      <c r="R28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R28" t="str">
+        <v>\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D</v>
+      </c>
+      <c r="S28" s="8"/>
+      <c r="T28" t="str">
         <f t="shared" si="1"/>
-        <v>'2111','',</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="4">
         <v>2349.3180000000002</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="O29">
+      <c r="C29" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="6"/>
+      <c r="P29">
         <v>98</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Q29" s="8" t="str">
+      <c r="R29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>21111111</v>
-      </c>
-      <c r="R29" t="str">
+        <v>\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68</v>
+      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" t="str">
         <f t="shared" si="1"/>
-        <v>'2111','','21111111',</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="4">
         <v>2489.0160000000001</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="O30">
+      <c r="C30" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="6"/>
+      <c r="P30">
         <v>99</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Q30" s="8" t="str">
+      <c r="R30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R30" t="str">
+        <v>\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68</v>
+      </c>
+      <c r="S30" s="8"/>
+      <c r="T30" t="str">
         <f t="shared" si="1"/>
-        <v>'2111','','21111111','',</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="4">
         <v>2637.02</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="O31">
+      <c r="C31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31">
         <v>100</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q31" s="8" t="str">
+      <c r="R31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R31" t="str">
+        <v>\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D</v>
+      </c>
+      <c r="S31" s="8"/>
+      <c r="T31" t="str">
         <f t="shared" si="1"/>
-        <v>'2111','','21111111','','',</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="4">
         <v>2793.826</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="O32">
+      <c r="C32" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="O32" s="6"/>
+      <c r="P32">
         <v>101</v>
       </c>
-      <c r="P32" s="3" t="s">
+      <c r="Q32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q32" s="8" t="str">
+      <c r="R32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R32" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D</v>
+      </c>
+      <c r="S32" s="8"/>
+      <c r="T32" t="str">
         <f t="shared" si="1"/>
-        <v>'2111','','21111111','','','',</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
       <c r="B33" s="5">
         <v>2959.9549999999999</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="O33">
+      <c r="C33" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33">
         <v>102</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="Q33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q33" s="8" t="str">
+      <c r="R33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R33" t="str">
+        <v>\uEF6B\uEF62\uEF63\uEF65\uEF66</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" t="str">
         <f t="shared" si="1"/>
-        <v>'2111','','21111111','','','','',</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="5">
         <v>3135.9630000000002</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="O34">
+      <c r="C34" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34">
         <v>103</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="Q34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q34" s="8" t="str">
+      <c r="R34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R34" t="str">
+        <v>\uEF6B\uEF62\uEF65</v>
+      </c>
+      <c r="S34" s="8"/>
+      <c r="T34" t="str">
         <f t="shared" si="1"/>
-        <v>'2111','','21111111','','','','','',</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="Q35" s="9"/>
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66','\uEF6B\uEF62\uEF65',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3322.4380000000001</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="P35">
+        <v>104</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="R35" s="8" t="str">
+        <f>_xlfn.CONCAT(C35:N35)</f>
+        <v>\uEF6B\uEF62\uEF64\uEF67\uEF68\uEF69\uEF6A\uEF9D</v>
+      </c>
+      <c r="S35" s="8"/>
+      <c r="T35" t="str">
+        <f t="shared" ref="T35:T36" si="2">T34&amp;"'"&amp;R35&amp;"',"</f>
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66','\uEF6B\uEF62\uEF65','\uEF6B\uEF62\uEF64\uEF67\uEF68\uEF69\uEF6A\uEF9D',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3520</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="6"/>
+      <c r="P36">
+        <v>105</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>\uEF6B\uEF62\uEF64\uEF66</v>
+      </c>
+      <c r="S36" s="8"/>
+      <c r="T36" t="str">
+        <f t="shared" si="2"/>
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66','\uEF6B\uEF62\uEF65','\uEF6B\uEF62\uEF64\uEF67\uEF68\uEF69\uEF6A\uEF9D','\uEF6B\uEF62\uEF64\uEF66',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Fingering.xlsx
+++ b/Fingering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/projects/personal/fingering-diagram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0D95AD-9D93-3049-B1A8-B3269D499D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640FF0CD-9ECC-FD4A-B9F7-2DA860C560D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34460" yWindow="1980" windowWidth="33600" windowHeight="18880" activeTab="3" xr2:uid="{851DC363-32CE-4241-A25E-21E01B6D35D5}"/>
+    <workbookView xWindow="34460" yWindow="1980" windowWidth="33600" windowHeight="18880" activeTab="1" xr2:uid="{851DC363-32CE-4241-A25E-21E01B6D35D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sections" sheetId="6" r:id="rId1"/>
@@ -226,10 +226,9 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>https://www.dolmetsch.com/textfingeringchart.htm
-http://www.recorder-fingerings.com/en/F.php?t=aBar.1S.3a</t>
+          <t xml:space="preserve">https://www.dolmetsch.com/textfingeringchart.htm
+</t>
         </r>
         <r>
           <rPr>
@@ -238,7 +237,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">http://www.recorder-fingerings.com/en/F.php?t=aBar.1S.3a
 </t>
         </r>
         <r>
@@ -257,18 +256,8 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>http://www.flute-a-bec.com/tablaturgb.html</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">http://www.flute-a-bec.com/tablaturgb.html
 </t>
         </r>
         <r>
@@ -297,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="201">
   <si>
     <t>B3</t>
   </si>
@@ -899,10 +888,7 @@
     <t>\uEF9D</t>
   </si>
   <si>
-    <t>Fingering</t>
-  </si>
-  <si>
-    <t>=</t>
+    <t>\uEF60</t>
   </si>
 </sst>
 </file>
@@ -913,7 +899,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -974,13 +960,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1024,7 +1003,7 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1404,7 +1383,7 @@
         <v>181</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C7" si="1">C3+160</f>
+        <f t="shared" ref="C4:C6" si="1">C3+160</f>
         <v>60800</v>
       </c>
       <c r="D4" t="str">
@@ -1495,11 +1474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8F6977-9827-D446-AF50-2B67C7CC719C}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,7 +1572,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>153</v>
@@ -1654,12 +1633,12 @@
       <c r="X2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Y2" s="8" t="str">
+      <c r="Y2" s="3" t="str">
         <f>"\uEC40\uEC41\uEC42"</f>
         <v>\uEC40\uEC41\uEC42</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1682,7 @@
       <c r="X3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="8" t="str">
+      <c r="Y3" s="3" t="str">
         <f>_xlfn.CONCAT(C3:U3)</f>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53</v>
       </c>
@@ -1712,7 +1691,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53',</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1752,7 +1731,7 @@
       <c r="X4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Y4" s="8" t="str">
+      <c r="Y4" s="3" t="str">
         <f t="shared" ref="Y4:Y40" si="0">_xlfn.CONCAT(C4:U4)</f>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53</v>
       </c>
@@ -1761,7 +1740,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53',</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1798,7 +1777,7 @@
       <c r="X5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Y5" s="8" t="str">
+      <c r="Y5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53</v>
       </c>
@@ -1807,7 +1786,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53',</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1846,7 +1825,7 @@
       <c r="X6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Y6" s="8" t="str">
+      <c r="Y6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51</v>
       </c>
@@ -1855,7 +1834,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51',</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1896,7 +1875,7 @@
       <c r="X7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Y7" s="8" t="str">
+      <c r="Y7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52</v>
       </c>
@@ -1905,7 +1884,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52',</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1923,7 @@
       <c r="X8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="8" t="str">
+      <c r="Y8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52</v>
       </c>
@@ -1953,7 +1932,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52',</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1990,7 +1969,7 @@
       <c r="X9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Y9" s="8" t="str">
+      <c r="Y9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52</v>
       </c>
@@ -1999,7 +1978,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52',</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2014,7 @@
       <c r="X10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Y10" s="8" t="str">
+      <c r="Y10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52</v>
       </c>
@@ -2044,7 +2023,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52',</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2078,7 +2057,7 @@
       <c r="X11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Y11" s="8" t="str">
+      <c r="Y11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC52</v>
       </c>
@@ -2087,7 +2066,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52',</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2123,7 +2102,7 @@
       <c r="X12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Y12" s="8" t="str">
+      <c r="Y12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52</v>
       </c>
@@ -2132,7 +2111,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52',</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2164,7 +2143,7 @@
       <c r="X13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Y13" s="8" t="str">
+      <c r="Y13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC52</v>
       </c>
@@ -2173,7 +2152,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52',</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +2184,7 @@
       <c r="X14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Y14" s="8" t="str">
+      <c r="Y14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC4D\uEC52</v>
       </c>
@@ -2214,7 +2193,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52','\uEC46\uEC47\uEC4D\uEC52',</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2244,7 +2223,7 @@
       <c r="X15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y15" s="8" t="str">
+      <c r="Y15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC52</v>
       </c>
@@ -2253,7 +2232,7 @@
         <v>'\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC55\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC53','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52','\uEC46\uEC47\uEC4D\uEC52','\uEC46\uEC47\uEC52',</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2281,7 +2260,7 @@
       <c r="X16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="Y16" s="8" t="str">
+      <c r="Y16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC47\uEC52</v>
       </c>
@@ -2290,7 +2269,7 @@
         <v>'\uEC47\uEC52',</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2316,7 +2295,7 @@
       <c r="X17" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y17" s="8" t="str">
+      <c r="Y17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC52</v>
       </c>
@@ -2325,7 +2304,7 @@
         <v>'\uEC47\uEC52','\uEC52',</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2361,7 +2340,7 @@
       <c r="X18" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Y18" s="8" t="str">
+      <c r="Y18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51</v>
       </c>
@@ -2370,7 +2349,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51',</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2408,7 +2387,7 @@
       <c r="X19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Y19" s="8" t="str">
+      <c r="Y19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52</v>
       </c>
@@ -2417,7 +2396,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52',</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2455,7 +2434,7 @@
       <c r="X20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y20" s="8" t="str">
+      <c r="Y20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52</v>
       </c>
@@ -2464,7 +2443,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52',</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2500,7 +2479,7 @@
       <c r="X21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="Y21" s="8" t="str">
+      <c r="Y21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52</v>
       </c>
@@ -2509,7 +2488,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52',</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2545,7 +2524,7 @@
       <c r="X22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Y22" s="8" t="str">
+      <c r="Y22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52</v>
       </c>
@@ -2554,7 +2533,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52',</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2588,7 +2567,7 @@
       <c r="X23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="Y23" s="8" t="str">
+      <c r="Y23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC52</v>
       </c>
@@ -2597,7 +2576,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52',</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2633,7 +2612,7 @@
       <c r="X24" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y24" s="8" t="str">
+      <c r="Y24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52</v>
       </c>
@@ -2642,7 +2621,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52',</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2653,7 @@
       <c r="X25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Y25" s="8" t="str">
+      <c r="Y25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC52</v>
       </c>
@@ -2683,7 +2662,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52',</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2715,7 +2694,7 @@
       <c r="X26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Y26" s="8" t="str">
+      <c r="Y26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC4D\uEC52</v>
       </c>
@@ -2724,7 +2703,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52','\uEC46\uEC47\uEC4D\uEC52',</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2754,7 +2733,7 @@
       <c r="X27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Y27" s="8" t="str">
+      <c r="Y27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC52</v>
       </c>
@@ -2763,7 +2742,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC47\uEC48\uEC52','\uEC46\uEC47\uEC4D\uEC52','\uEC46\uEC47\uEC52',</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2791,7 +2770,7 @@
       <c r="X28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Y28" s="8" t="str">
+      <c r="Y28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC47\uEC52</v>
       </c>
@@ -2800,7 +2779,7 @@
         <v>'\uEC47\uEC52',</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2826,7 +2805,7 @@
       <c r="X29" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="Y29" s="8" t="str">
+      <c r="Y29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC52</v>
       </c>
@@ -2835,7 +2814,7 @@
         <v>'\uEC47\uEC52','\uEC52',</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -2867,7 +2846,7 @@
       <c r="X30" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Y30" s="8" t="str">
+      <c r="Y30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC48\uEC49\uEC52</v>
       </c>
@@ -2876,7 +2855,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52',</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2918,7 +2897,7 @@
       <c r="X31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Y31" s="8" t="str">
+      <c r="Y31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52</v>
       </c>
@@ -2927,7 +2906,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52',</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2963,7 +2942,7 @@
       <c r="X32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Y32" s="8" t="str">
+      <c r="Y32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52</v>
       </c>
@@ -2972,7 +2951,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52',</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +2985,7 @@
       <c r="X33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Y33" s="8" t="str">
+      <c r="Y33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC49\uEC4D\uEC52</v>
       </c>
@@ -3015,7 +2994,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52',</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -3049,7 +3028,7 @@
       <c r="X34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Y34" s="8" t="str">
+      <c r="Y34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC49\uEC51\uEC52</v>
       </c>
@@ -3058,7 +3037,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52',</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3069,7 @@
       <c r="X35" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Y35" s="8" t="str">
+      <c r="Y35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC47\uEC48\uEC49\uEC52</v>
       </c>
@@ -3099,7 +3078,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52',</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3131,7 +3110,7 @@
       <c r="X36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Y36" s="8" t="str">
+      <c r="Y36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC48\uEC49\uEC4A\uEC52</v>
       </c>
@@ -3140,7 +3119,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52','\uEC48\uEC49\uEC4A\uEC52',</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -3172,7 +3151,7 @@
       <c r="X37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y37" s="8" t="str">
+      <c r="Y37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC48\uEC4D\uEC52</v>
       </c>
@@ -3181,7 +3160,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52','\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC48\uEC4D\uEC52',</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -3211,7 +3190,7 @@
       <c r="X38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Y38" s="8" t="str">
+      <c r="Y38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC4E\uEC4D</v>
       </c>
@@ -3220,7 +3199,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52','\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC48\uEC4D\uEC52','\uEC46\uEC4E\uEC4D',</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3251,7 +3230,7 @@
       <c r="X39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Y39" s="8" t="str">
+      <c r="Y39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC46\uEC47\uEC49\uEC50</v>
       </c>
@@ -3260,7 +3239,7 @@
         <v>'\uEC47\uEC52','\uEC52','\uEC46\uEC48\uEC49\uEC52','\uEC46\uEC47\uEC48\uEC49\uEC4A\uEC4D\uEC4F\uEC51\uEC52','\uEC46\uEC47\uEC48\uEC4D\uEC4F\uEC52','\uEC46\uEC47\uEC49\uEC4D\uEC52','\uEC46\uEC47\uEC49\uEC51\uEC52','\uEC47\uEC48\uEC49\uEC52','\uEC48\uEC49\uEC4A\uEC52','\uEC46\uEC48\uEC4D\uEC52','\uEC46\uEC4E\uEC4D','\uEC46\uEC47\uEC49\uEC50',</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -3293,7 +3272,7 @@
       <c r="X40" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Y40" s="8" t="str">
+      <c r="Y40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>\uEC47\uEC48\uEC49\uEC4A\uEC4D</v>
       </c>
@@ -3302,7 +3281,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D',</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -3332,7 +3311,7 @@
       <c r="X41" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Y41" s="8" t="str">
+      <c r="Y41" s="3" t="str">
         <f t="shared" ref="Y41" si="2">_xlfn.CONCAT(C41:U41)</f>
         <v>\uEC48\uEC4D\uEC51\uEC55\uEC53</v>
       </c>
@@ -3341,7 +3320,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53',</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -3372,7 +3351,7 @@
       <c r="X42" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y42" s="8" t="str">
+      <c r="Y42" s="3" t="str">
         <f t="shared" ref="Y42:Y49" si="3">_xlfn.CONCAT(C42:U42)</f>
         <v>\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55</v>
       </c>
@@ -3381,7 +3360,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55',</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3412,7 +3391,7 @@
       <c r="X43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="Y43" s="8" t="str">
+      <c r="Y43" s="3" t="str">
         <f t="shared" si="3"/>
         <v>\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53</v>
       </c>
@@ -3421,7 +3400,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53',</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -3461,7 +3440,7 @@
       <c r="X44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Y44" s="8" t="str">
+      <c r="Y44" s="3" t="str">
         <f t="shared" si="3"/>
         <v>\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55</v>
       </c>
@@ -3470,7 +3449,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55',</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -3498,7 +3477,7 @@
       <c r="X45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Y45" s="8" t="str">
+      <c r="Y45" s="3" t="str">
         <f t="shared" si="3"/>
         <v>\uEC48\uEC50\uEC51\uEC52\uEC53</v>
       </c>
@@ -3507,7 +3486,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53',</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -3538,7 +3517,7 @@
       <c r="X46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Y46" s="8" t="str">
+      <c r="Y46" s="3" t="str">
         <f t="shared" si="3"/>
         <v>\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53</v>
       </c>
@@ -3547,7 +3526,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53','\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53',</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -3578,7 +3557,7 @@
       <c r="X47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Y47" s="8" t="str">
+      <c r="Y47" s="3" t="str">
         <f t="shared" si="3"/>
         <v>\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F</v>
       </c>
@@ -3587,7 +3566,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53','\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F',</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -3630,7 +3609,7 @@
       <c r="X48" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="Y48" s="8" t="str">
+      <c r="Y48" s="3" t="str">
         <f t="shared" si="3"/>
         <v>\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F\uEC51\uEC54\uEC55\uEC53</v>
       </c>
@@ -3639,7 +3618,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53','\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F\uEC51\uEC54\uEC55\uEC53',</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3685,7 +3664,7 @@
       <c r="X49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Y49" s="8" t="str">
+      <c r="Y49" s="3" t="str">
         <f t="shared" si="3"/>
         <v>\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC59\uEC4F\uEC51\uEC54\uEC55\uEC53</v>
       </c>
@@ -3694,7 +3673,7 @@
         <v>'\uEC47\uEC48\uEC49\uEC4A\uEC4D','\uEC48\uEC4D\uEC51\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4D\uEC4F\uEC55','\uEC46\uEC49\uEC4E\uEC4D\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC50\uEC51\uEC54\uEC55','\uEC48\uEC50\uEC51\uEC52\uEC53','\uEC46\uEC4A\uEC4D\uEC51\uEC52\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC4F\uEC51\uEC54\uEC55\uEC53','\uEC46\uEC48\uEC49\uEC4A\uEC4E\uEC59\uEC4F\uEC51\uEC54\uEC55\uEC53',</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -3707,9 +3686,9 @@
       <c r="X50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Y50" s="9"/>
-    </row>
-    <row r="51" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -3722,9 +3701,9 @@
       <c r="X51" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Y51" s="9"/>
-    </row>
-    <row r="52" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -3743,9 +3722,9 @@
       <c r="X52" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Y52" s="9"/>
-    </row>
-    <row r="53" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -3758,7 +3737,7 @@
       <c r="X53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Y53" s="9"/>
+      <c r="Y53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="18" x14ac:dyDescent="0.25">
       <c r="Y54" s="9"/>
@@ -10785,13 +10764,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098320-1ECA-4C4B-B8F4-465E7E7241CA}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10804,10 +10783,11 @@
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
     <col min="10" max="17" width="8.5" customWidth="1"/>
-    <col min="18" max="19" width="24.6640625" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
+    <col min="19" max="19" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -10861,13 +10841,10 @@
         <v>152</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T1" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>183</v>
@@ -10907,15 +10884,11 @@
       <c r="Q2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="8">
-        <v>60480</v>
-      </c>
-      <c r="S2" t="str">
-        <f>_xlfn.UNICHAR(R2)</f>
-        <v></v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="R2" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -10960,19 +10933,16 @@
       <c r="Q3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="8" t="str">
+      <c r="R3" s="4" t="str">
         <f>_xlfn.CONCAT(C3:N3)</f>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="T3" t="str">
+      <c r="S3" t="str">
         <f>"'"&amp;R3&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A',</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -11013,17 +10983,16 @@
       <c r="Q4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="8" t="str">
+      <c r="R4" s="4" t="str">
         <f t="shared" ref="R4:R36" si="0">_xlfn.CONCAT(C4:N4)</f>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" t="str">
-        <f t="shared" ref="T4:T34" si="1">T3&amp;"'"&amp;R4&amp;"',"</f>
+      <c r="S4" t="str">
+        <f>S3&amp;"'"&amp;R4&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69',</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -11061,17 +11030,16 @@
       <c r="Q5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="8" t="str">
+      <c r="R5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" t="str">
-        <f t="shared" si="1"/>
+      <c r="S5" t="str">
+        <f>S4&amp;"'"&amp;R5&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68',</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -11106,17 +11074,16 @@
       <c r="Q6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R6" s="8" t="str">
+      <c r="R6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67</v>
       </c>
-      <c r="S6" s="8"/>
-      <c r="T6" t="str">
-        <f t="shared" si="1"/>
+      <c r="S6" t="str">
+        <f>S5&amp;"'"&amp;R6&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67',</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -11148,17 +11115,16 @@
       <c r="Q7" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R7" s="8" t="str">
+      <c r="R7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66</v>
       </c>
-      <c r="S7" s="8"/>
-      <c r="T7" t="str">
-        <f t="shared" si="1"/>
+      <c r="S7" t="str">
+        <f>S6&amp;"'"&amp;R7&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66',</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -11199,17 +11165,16 @@
       <c r="Q8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="8" t="str">
+      <c r="R8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A</v>
       </c>
-      <c r="S8" s="8"/>
-      <c r="T8" t="str">
-        <f t="shared" si="1"/>
+      <c r="S8" t="str">
+        <f>S7&amp;"'"&amp;R8&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A',</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -11243,17 +11208,16 @@
       <c r="Q9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R9" s="8" t="str">
+      <c r="R9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68</v>
       </c>
-      <c r="S9" s="8"/>
-      <c r="T9" t="str">
-        <f t="shared" si="1"/>
+      <c r="S9" t="str">
+        <f>S8&amp;"'"&amp;R9&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68',</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -11278,17 +11242,16 @@
       <c r="Q10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="8" t="str">
+      <c r="R10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF64</v>
       </c>
-      <c r="S10" s="8"/>
-      <c r="T10" t="str">
-        <f t="shared" si="1"/>
+      <c r="S10" t="str">
+        <f>S9&amp;"'"&amp;R10&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64',</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -11319,17 +11282,16 @@
       <c r="Q11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="R11" s="8" t="str">
+      <c r="R11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67</v>
       </c>
-      <c r="S11" s="8"/>
-      <c r="T11" t="str">
-        <f t="shared" si="1"/>
+      <c r="S11" t="str">
+        <f>S10&amp;"'"&amp;R11&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64','\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67',</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -11351,17 +11313,16 @@
       <c r="Q12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R12" s="8" t="str">
+      <c r="R12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF63</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" t="str">
-        <f t="shared" si="1"/>
+      <c r="S12" t="str">
+        <f>S11&amp;"'"&amp;R12&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64','\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63',</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -11386,17 +11347,16 @@
       <c r="Q13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="8" t="str">
+      <c r="R13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62\uEF64\uEF65</v>
       </c>
-      <c r="S13" s="8"/>
-      <c r="T13" t="str">
-        <f t="shared" si="1"/>
+      <c r="S13" t="str">
+        <f>S12&amp;"'"&amp;R13&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64','\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63','\uEF61\uEF62\uEF64\uEF65',</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -11415,17 +11375,16 @@
       <c r="Q14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="R14" s="8" t="str">
+      <c r="R14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF62</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" t="str">
-        <f t="shared" si="1"/>
+      <c r="S14" t="str">
+        <f>S13&amp;"'"&amp;R14&amp;"',"</f>
         <v>'\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68\uEF69','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF61\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68\uEF69\uEF6A','\uEF61\uEF62\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF61\uEF62\uEF63\uEF64','\uEF61\uEF62\uEF63\uEF65\uEF66\uEF67','\uEF61\uEF62\uEF63','\uEF61\uEF62\uEF64\uEF65','\uEF61\uEF62',</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -11455,17 +11414,16 @@
       <c r="Q15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="R15" s="8" t="str">
+      <c r="R15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF61\uEF63</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" t="str">
+      <c r="S15" t="str">
         <f>"'"&amp;R15&amp;"',"</f>
         <v>'\uEF61\uEF63',</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -11495,17 +11453,16 @@
       <c r="Q16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="R16" s="8" t="str">
+      <c r="R16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF62\uEF63</v>
       </c>
-      <c r="S16" s="8"/>
-      <c r="T16" t="str">
-        <f t="shared" si="1"/>
+      <c r="S16" t="str">
+        <f>S15&amp;"'"&amp;R16&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63',</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -11533,17 +11490,16 @@
       <c r="Q17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R17" s="8" t="str">
+      <c r="R17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF63</v>
       </c>
-      <c r="S17" s="8"/>
-      <c r="T17" t="str">
-        <f t="shared" si="1"/>
+      <c r="S17" t="str">
+        <f>S16&amp;"'"&amp;R17&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63',</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -11581,17 +11537,16 @@
       <c r="Q18" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R18" s="8" t="str">
+      <c r="R18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68</v>
       </c>
-      <c r="S18" s="8"/>
-      <c r="T18" t="str">
-        <f t="shared" si="1"/>
+      <c r="S18" t="str">
+        <f>S17&amp;"'"&amp;R18&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68',</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -11629,17 +11584,16 @@
       <c r="Q19" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R19" s="8" t="str">
+      <c r="R19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66</v>
       </c>
-      <c r="S19" s="8"/>
-      <c r="T19" t="str">
-        <f t="shared" si="1"/>
+      <c r="S19" t="str">
+        <f>S18&amp;"'"&amp;R19&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66',</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -11679,17 +11633,16 @@
       <c r="Q20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="8" t="str">
+      <c r="R20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68</v>
       </c>
-      <c r="S20" s="8"/>
-      <c r="T20" t="str">
-        <f t="shared" si="1"/>
+      <c r="S20" t="str">
+        <f>S19&amp;"'"&amp;R20&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68',</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -11725,17 +11678,16 @@
       <c r="Q21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="R21" s="8" t="str">
+      <c r="R21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF64\uEF66</v>
       </c>
-      <c r="S21" s="8"/>
-      <c r="T21" t="str">
-        <f t="shared" si="1"/>
+      <c r="S21" t="str">
+        <f>S20&amp;"'"&amp;R21&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66',</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -11769,17 +11721,16 @@
       <c r="Q22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R22" s="8" t="str">
+      <c r="R22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF64</v>
       </c>
-      <c r="S22" s="8"/>
-      <c r="T22" t="str">
-        <f t="shared" si="1"/>
+      <c r="S22" t="str">
+        <f>S21&amp;"'"&amp;R22&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64',</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -11813,17 +11764,16 @@
       <c r="Q23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="R23" s="8" t="str">
+      <c r="R23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF65</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" t="str">
-        <f t="shared" si="1"/>
+      <c r="S23" t="str">
+        <f>S22&amp;"'"&amp;R23&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64','\uEF6B\uEF62\uEF63\uEF65',</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -11855,17 +11805,16 @@
       <c r="Q24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R24" s="8" t="str">
+      <c r="R24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63</v>
       </c>
-      <c r="S24" s="8"/>
-      <c r="T24" t="str">
-        <f t="shared" si="1"/>
+      <c r="S24" t="str">
+        <f>S23&amp;"'"&amp;R24&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64','\uEF6B\uEF62\uEF63\uEF65','\uEF6B\uEF62\uEF63',</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -11903,17 +11852,16 @@
       <c r="Q25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="8" t="str">
+      <c r="R25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF66\uEF67\uEF68</v>
       </c>
-      <c r="S25" s="8"/>
-      <c r="T25" t="str">
-        <f t="shared" si="1"/>
+      <c r="S25" t="str">
+        <f>S24&amp;"'"&amp;R25&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64','\uEF6B\uEF62\uEF63\uEF65','\uEF6B\uEF62\uEF63','\uEF6B\uEF62\uEF63\uEF66\uEF67\uEF68',</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -11949,17 +11897,16 @@
       <c r="Q26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="R26" s="8" t="str">
+      <c r="R26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF65\uEF66</v>
       </c>
-      <c r="S26" s="8"/>
-      <c r="T26" t="str">
-        <f t="shared" si="1"/>
+      <c r="S26" t="str">
+        <f>S25&amp;"'"&amp;R26&amp;"',"</f>
         <v>'\uEF61\uEF63','\uEF62\uEF63','\uEF63','\uEF63\uEF64\uEF65\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF66','\uEF6B\uEF62\uEF63\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF64\uEF66','\uEF6B\uEF62\uEF63\uEF64','\uEF6B\uEF62\uEF63\uEF65','\uEF6B\uEF62\uEF63','\uEF6B\uEF62\uEF63\uEF66\uEF67\uEF68','\uEF6B\uEF62\uEF63\uEF65\uEF66',</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -11993,17 +11940,16 @@
       <c r="Q27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="R27" s="8" t="str">
+      <c r="R27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF65\uEF66</v>
       </c>
-      <c r="S27" s="8"/>
-      <c r="T27" t="str">
+      <c r="S27" t="str">
         <f>"'"&amp;R27&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66',</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -12043,17 +11989,16 @@
       <c r="Q28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="8" t="str">
+      <c r="R28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D</v>
       </c>
-      <c r="S28" s="8"/>
-      <c r="T28" t="str">
-        <f t="shared" si="1"/>
+      <c r="S28" t="str">
+        <f>S27&amp;"'"&amp;R28&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D',</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -12091,17 +12036,16 @@
       <c r="Q29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="R29" s="8" t="str">
+      <c r="R29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68</v>
       </c>
-      <c r="S29" s="8"/>
-      <c r="T29" t="str">
-        <f t="shared" si="1"/>
+      <c r="S29" t="str">
+        <f>S28&amp;"'"&amp;R29&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68',</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -12139,17 +12083,16 @@
       <c r="Q30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="R30" s="8" t="str">
+      <c r="R30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68</v>
       </c>
-      <c r="S30" s="8"/>
-      <c r="T30" t="str">
-        <f t="shared" si="1"/>
+      <c r="S30" t="str">
+        <f>S29&amp;"'"&amp;R30&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68',</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -12189,17 +12132,16 @@
       <c r="Q31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="R31" s="8" t="str">
+      <c r="R31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D</v>
       </c>
-      <c r="S31" s="8"/>
-      <c r="T31" t="str">
-        <f t="shared" si="1"/>
+      <c r="S31" t="str">
+        <f>S30&amp;"'"&amp;R31&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D',</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -12237,17 +12179,16 @@
       <c r="Q32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R32" s="8" t="str">
+      <c r="R32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D</v>
       </c>
-      <c r="S32" s="8"/>
-      <c r="T32" t="str">
-        <f t="shared" si="1"/>
+      <c r="S32" t="str">
+        <f>S31&amp;"'"&amp;R32&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D',</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -12283,17 +12224,16 @@
       <c r="Q33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="R33" s="8" t="str">
+      <c r="R33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF63\uEF65\uEF66</v>
       </c>
-      <c r="S33" s="8"/>
-      <c r="T33" t="str">
-        <f t="shared" si="1"/>
+      <c r="S33" t="str">
+        <f>S32&amp;"'"&amp;R33&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66',</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -12325,17 +12265,16 @@
       <c r="Q34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="R34" s="8" t="str">
+      <c r="R34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>\uEF6B\uEF62\uEF65</v>
       </c>
-      <c r="S34" s="8"/>
-      <c r="T34" t="str">
-        <f t="shared" si="1"/>
+      <c r="S34" t="str">
+        <f>S33&amp;"'"&amp;R34&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66','\uEF6B\uEF62\uEF65',</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>56</v>
       </c>
@@ -12377,17 +12316,16 @@
       <c r="Q35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="R35" s="8" t="str">
+      <c r="R35" s="4" t="str">
         <f>_xlfn.CONCAT(C35:N35)</f>
         <v>\uEF6B\uEF62\uEF64\uEF67\uEF68\uEF69\uEF6A\uEF9D</v>
       </c>
-      <c r="S35" s="8"/>
-      <c r="T35" t="str">
-        <f t="shared" ref="T35:T36" si="2">T34&amp;"'"&amp;R35&amp;"',"</f>
+      <c r="S35" t="str">
+        <f>S34&amp;"'"&amp;R35&amp;"',"</f>
         <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66','\uEF6B\uEF62\uEF65','\uEF6B\uEF62\uEF64\uEF67\uEF68\uEF69\uEF6A\uEF9D',</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -12409,8 +12347,12 @@
       <c r="I36" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
+      <c r="J36" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -12421,17 +12363,16 @@
       <c r="Q36" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R36" s="8" t="str">
+      <c r="R36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>\uEF6B\uEF62\uEF64\uEF66</v>
-      </c>
-      <c r="S36" s="8"/>
-      <c r="T36" t="str">
-        <f t="shared" si="2"/>
-        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66','\uEF6B\uEF62\uEF65','\uEF6B\uEF62\uEF64\uEF67\uEF68\uEF69\uEF6A\uEF9D','\uEF6B\uEF62\uEF64\uEF66',</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+        <v>\uEF6B\uEF62\uEF64\uEF66\uEF67\uEF68</v>
+      </c>
+      <c r="S36" t="str">
+        <f>S35&amp;"'"&amp;R36&amp;"',"</f>
+        <v>'\uEF6B\uEF62\uEF65\uEF66','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF64\uEF65\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68','\uEF6B\uEF63\uEF64\uEF66\uEF67\uEF68\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66\uEF9D','\uEF6B\uEF62\uEF63\uEF65\uEF66','\uEF6B\uEF62\uEF65','\uEF6B\uEF62\uEF64\uEF67\uEF68\uEF69\uEF6A\uEF9D','\uEF6B\uEF62\uEF64\uEF66\uEF67\uEF68',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -12446,7 +12387,7 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
